--- a/biology/Botanique/Annales_de_pomologie_belge_et_étrangère/Annales_de_pomologie_belge_et_étrangère.xlsx
+++ b/biology/Botanique/Annales_de_pomologie_belge_et_étrangère/Annales_de_pomologie_belge_et_étrangère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Annales_de_pomologie_belge_et_%C3%A9trang%C3%A8re</t>
+          <t>Annales_de_pomologie_belge_et_étrangère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Annales de pomologie belge et étrangère (1853-1860) est une revue annuelle publiée par la Commission royale de pomologie et dont Alexandre Bivort est le rédacteur scientifique.
-Au total, la collection de la revue comprend 8 volumes et décrit scientifiquement plus de 450 fruits différents. Les fruits sont illustrés à travers 384 planches chromolithographiées [1],[2]. L'artiste de ces illustrations n'est pas connu.
+Au total, la collection de la revue comprend 8 volumes et décrit scientifiquement plus de 450 fruits différents. Les fruits sont illustrés à travers 384 planches chromolithographiées ,. L'artiste de ces illustrations n'est pas connu.
 L'ensemble de la revue a été rééditée en 2002 sous forme d'un livre : Annales de pomologie belge et étrangère: dessins et descriptions de 450 fruits (Naturalia, 2002;  (ISBN 9782909717333).
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Annales_de_pomologie_belge_et_%C3%A9trang%C3%A8re</t>
+          <t>Annales_de_pomologie_belge_et_étrangère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Rédacteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alexandre Bivort (rédacteur et rédacteur scientifique)
 Alfred-Théodore Boisbunel
